--- a/Sprints/sprint 6.xlsx
+++ b/Sprints/sprint 6.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08629a52813691e6/Desktop/PIM/Sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\PIM\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{48BC6065-0DC0-4A88-B2A8-714BB78106F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{371CC100-658C-4029-B81B-466AAC675DDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4B4FDD-F04E-4FD2-8BDF-542647394559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint" sheetId="2" r:id="rId1"/>
+    <sheet name="Sprint 6" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>STATUS</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>Bruno e Cristielen</t>
+  </si>
+  <si>
+    <t>HORAS TRABALHADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Hora e 30 Minutos</t>
+  </si>
+  <si>
+    <t>2 Horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 Horas e 30 Minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Hora</t>
   </si>
 </sst>
 </file>
@@ -99,19 +114,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -200,22 +229,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="QUEM REALIZOU" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TAREFA REALIZADA " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="QUEM REALIZOU" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E4536884-E8B0-4347-A804-7974646996D9}" name="HORAS TRABALHADAS" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -359,7 +389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -501,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,23 +539,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="29.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,10 +566,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,10 +583,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -564,10 +600,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -578,20 +617,26 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
